--- a/backend/FCC.xlsx
+++ b/backend/FCC.xlsx
@@ -1,8 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\STUDY\AllSemester\FYP\CPPA-G\project\app\backend\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Gas" sheetId="1" r:id="rId1"/>
@@ -25,11 +32,12 @@
     <sheet name="Biomass" sheetId="18" r:id="rId18"/>
     <sheet name="Geothermal" sheetId="19" r:id="rId19"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="50">
   <si>
     <t>Wed Jan 01 2020 05:00:00 GMT+0500 (Pakistan Standard Time)</t>
   </si>
@@ -173,13 +181,19 @@
   </si>
   <si>
     <t>0.47939834024896266</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>qw</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -204,231 +218,518 @@
       <diagonal/>
     </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="1">
-    <xf applyFont="1" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:4">
-      <c r="C3" s="0" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="0" t="s">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="0" t="s">
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="0" t="s">
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="0" t="s">
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="0" t="s">
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>32</v>
       </c>
     </row>
@@ -438,224 +739,224 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D27"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:4">
-      <c r="C3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="0" t="s">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="0" t="s">
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="0" t="s">
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="0" t="s">
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="0" t="s">
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>32</v>
       </c>
     </row>
@@ -665,224 +966,224 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D27"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:4">
-      <c r="C3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="0" t="s">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="0" t="s">
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="0" t="s">
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="0" t="s">
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="0" t="s">
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>32</v>
       </c>
     </row>
@@ -892,224 +1193,224 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D27"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:4">
-      <c r="C3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="0" t="s">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="0" t="s">
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="0" t="s">
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="0" t="s">
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="0" t="s">
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1119,224 +1420,224 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D27"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:4">
-      <c r="C3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="0" t="s">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="0" t="s">
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="0" t="s">
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="0" t="s">
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="0" t="s">
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1346,224 +1647,224 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D27"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:4">
-      <c r="C3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="0" t="s">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="0" t="s">
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="0" t="s">
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="0" t="s">
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="0" t="s">
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1573,224 +1874,224 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D27"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:4">
-      <c r="C3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="0" t="s">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="0" t="s">
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="0" t="s">
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="0" t="s">
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="0" t="s">
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1800,224 +2101,224 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D27"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:4">
-      <c r="C3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="0" t="s">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="0" t="s">
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="0" t="s">
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="0" t="s">
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="0" t="s">
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2027,224 +2328,224 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D27"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:4">
-      <c r="C3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="0" t="s">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="0" t="s">
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="0" t="s">
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="0" t="s">
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="0" t="s">
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2254,224 +2555,224 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D27"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:4">
-      <c r="C3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="0" t="s">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="0" t="s">
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="0" t="s">
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="0" t="s">
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="0" t="s">
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2481,224 +2782,224 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D27"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:4">
-      <c r="C3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="0" t="s">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="0" t="s">
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="0" t="s">
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="0" t="s">
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="0" t="s">
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2708,224 +3009,224 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D27"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:4">
-      <c r="C3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="0" t="s">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="0" t="s">
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="0" t="s">
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="0" t="s">
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="0" t="s">
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2935,224 +3236,224 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D27"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:4">
-      <c r="C3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="0" t="s">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="0" t="s">
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="0" t="s">
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="0" t="s">
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="0" t="s">
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3162,224 +3463,224 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D27"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:4">
-      <c r="C3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="0" t="s">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="0" t="s">
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="0" t="s">
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="0" t="s">
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="0" t="s">
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3389,224 +3690,224 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D27"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:4">
-      <c r="C3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="0" t="s">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="0" t="s">
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="0" t="s">
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="0" t="s">
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="0" t="s">
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3616,224 +3917,224 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D27"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:4">
-      <c r="C3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="0" t="s">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="0" t="s">
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="0" t="s">
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="0" t="s">
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="0" t="s">
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3843,224 +4144,224 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D27"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:4">
-      <c r="C3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="0" t="s">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="0" t="s">
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="0" t="s">
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="0" t="s">
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="0" t="s">
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4070,224 +4371,224 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D27"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:4">
-      <c r="C3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="0" t="s">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="0" t="s">
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="0" t="s">
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="0" t="s">
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="0" t="s">
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4297,224 +4598,224 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D27"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:4">
-      <c r="C3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="0" t="s">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="0" t="s">
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="0" t="s">
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="0" t="s">
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="0" t="s">
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>32</v>
       </c>
     </row>
